--- a/biology/Histoire de la zoologie et de la botanique/Olof_Bromelius/Olof_Bromelius.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Olof_Bromelius/Olof_Bromelius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olof Ole (ou Olaus Olai) Bromelius est un botaniste, médecin et numismate suédois, né à Örebro, le 24 mai 1639, et décédé à Göteborg, le 5 février 1705.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de médecine à l'Université d'Uppsala, il se rend à Stockholm, en 1669, pour y devenir herboriste officiel responsable des pharmacies de la ville. En 1672, il part exercer la médecine aux Pays-Bas et devient docteur en médecine à l'Université de Leyde en 1673. Il revient en Suède en 1674. Il exerce ensuite la médecine à Stockholm, à partir de 1675, puis à Göteborg, à partir de 1691. En 1676, il a également fait partie d'une commission chargée d'examiner les affaires de sorcellerie à Stockholm. Les travaux de cette commission conduiront à mettre un terme aux procès en sorcellerie qui étaient alors menés dans la capitale de la Suède (au moins 8 femmes y avaient été exécutées pour faits de sorcellerie en 1675-1676).
 En 1687, Bromelius publie Lupulogia, un traité de botanique destiné aux agriculteurs, puis, en 1694, Chloris gothica s. catalogus stirpium circa Gothoburgum nascentium, la première étude sérieuse consacrée à la flore de la région de Göteborg.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(sv) Svenskt biografiskt handlexikon
  Portail de l’histoire de la zoologie et de la botanique   Portail de la Suède   Portail de la botanique                   </t>
